--- a/Idaho/WaterAllocation/ID_PoU_Allocation Schema Mapping to WaDE_QA.xlsx
+++ b/Idaho/WaterAllocation/ID_PoU_Allocation Schema Mapping to WaDE_QA.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rjame\Documents\WSWC Documents\MappingStatesDataToWaDE2.0\Idaho\WaterAllocation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{517576CF-9FF3-4AEB-94E8-A3A2CBCEBD93}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{757E2E07-1144-4C23-9D38-2FABB5C38FF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" tabRatio="714" activeTab="6" xr2:uid="{10FC1BAB-5472-410C-A2F0-85DCDF5389F8}"/>
+    <workbookView xWindow="-23148" yWindow="1692" windowWidth="23256" windowHeight="12456" tabRatio="714" activeTab="6" xr2:uid="{10FC1BAB-5472-410C-A2F0-85DCDF5389F8}"/>
   </bookViews>
   <sheets>
     <sheet name="Mapping Notes" sheetId="10" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="969" uniqueCount="298">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="969" uniqueCount="300">
   <si>
     <t>Name</t>
   </si>
@@ -811,9 +811,6 @@
   </si>
   <si>
     <t>Surface Ground Water</t>
-  </si>
-  <si>
-    <t>"IDWR"</t>
   </si>
   <si>
     <t>"linda.davis@idwr.idaho.gov"</t>
@@ -952,6 +949,15 @@
   </si>
   <si>
     <t>WSWC defined owner tag.</t>
+  </si>
+  <si>
+    <t>IDwr_M1</t>
+  </si>
+  <si>
+    <t>IDwr_V1</t>
+  </si>
+  <si>
+    <t>IDwr_O1</t>
   </si>
 </sst>
 </file>
@@ -2478,12 +2484,12 @@
         <v>240</v>
       </c>
       <c r="B17" s="92" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B18" s="92" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.3">
@@ -2505,7 +2511,7 @@
   <dimension ref="A1:J12"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="I9" sqref="I9"/>
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2608,7 +2614,7 @@
         <v>38</v>
       </c>
       <c r="E4" s="56" t="s">
-        <v>139</v>
+        <v>297</v>
       </c>
       <c r="F4" s="37"/>
       <c r="G4" s="38"/>
@@ -2858,7 +2864,7 @@
   <dimension ref="A1:J13"/>
   <sheetViews>
     <sheetView topLeftCell="B1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2955,7 +2961,7 @@
         <v>38</v>
       </c>
       <c r="E4" s="56" t="s">
-        <v>140</v>
+        <v>298</v>
       </c>
       <c r="F4" s="37"/>
       <c r="G4" s="38"/>
@@ -3235,7 +3241,7 @@
   <dimension ref="A1:J26"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3338,7 +3344,7 @@
         <v>38</v>
       </c>
       <c r="E4" s="49" t="s">
-        <v>257</v>
+        <v>299</v>
       </c>
       <c r="F4" s="37"/>
       <c r="G4" s="38"/>
@@ -3366,7 +3372,7 @@
         <v>38</v>
       </c>
       <c r="E5" s="58" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="F5" s="20"/>
       <c r="G5" s="21"/>
@@ -3394,7 +3400,7 @@
         <v>38</v>
       </c>
       <c r="E6" s="58" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="F6" s="20"/>
       <c r="G6" s="21"/>
@@ -3422,7 +3428,7 @@
         <v>38</v>
       </c>
       <c r="E7" s="58" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="F7" s="20"/>
       <c r="G7" s="21"/>
@@ -3450,7 +3456,7 @@
         <v>38</v>
       </c>
       <c r="E8" s="58" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="F8" s="20"/>
       <c r="G8" s="21"/>
@@ -3478,7 +3484,7 @@
         <v>38</v>
       </c>
       <c r="E9" s="58" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="F9" s="20"/>
       <c r="G9" s="21"/>
@@ -3506,7 +3512,7 @@
         <v>38</v>
       </c>
       <c r="E10" s="58" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="F10" s="20"/>
       <c r="G10" s="21"/>
@@ -3534,7 +3540,7 @@
         <v>38</v>
       </c>
       <c r="E11" s="58" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="F11" s="20"/>
       <c r="G11" s="21"/>
@@ -3562,7 +3568,7 @@
         <v>38</v>
       </c>
       <c r="E12" s="18" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="F12" s="20"/>
       <c r="G12" s="21"/>
@@ -3715,7 +3721,7 @@
         <v>38</v>
       </c>
       <c r="E4" s="66" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="F4" s="67"/>
       <c r="G4" s="102"/>
@@ -3822,10 +3828,10 @@
         <v>38</v>
       </c>
       <c r="F8" s="51" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="G8" s="93" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="H8" s="59"/>
       <c r="I8" s="65" t="s">
@@ -3849,7 +3855,7 @@
         <v>38</v>
       </c>
       <c r="E9" s="55" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="F9" s="31" t="s">
         <v>38</v>
@@ -3879,13 +3885,13 @@
         <v>20</v>
       </c>
       <c r="E10" s="51" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="F10" s="51" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="G10" s="93" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="H10" s="22"/>
       <c r="I10" s="65" t="s">
@@ -4016,7 +4022,7 @@
         <v>38</v>
       </c>
       <c r="E4" s="66" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="F4" s="67" t="s">
         <v>38</v>
@@ -4076,7 +4082,7 @@
         <v>20</v>
       </c>
       <c r="E6" s="101" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="F6" s="31" t="s">
         <v>38</v>
@@ -4280,10 +4286,10 @@
         <v>38</v>
       </c>
       <c r="E13" s="31" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="F13" s="51" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="G13" s="94" t="s">
         <v>55</v>
@@ -4309,10 +4315,10 @@
         <v>38</v>
       </c>
       <c r="E14" s="31" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="F14" s="51" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="G14" s="94" t="s">
         <v>54</v>
@@ -4386,7 +4392,7 @@
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A17" s="5" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="B17" s="6" t="s">
         <v>16</v>
@@ -4398,7 +4404,7 @@
         <v>38</v>
       </c>
       <c r="E17" s="51" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="F17" s="31" t="s">
         <v>38</v>
@@ -4408,7 +4414,7 @@
       </c>
       <c r="H17" s="88"/>
       <c r="I17" s="89" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="J17" s="103"/>
     </row>
@@ -4424,7 +4430,7 @@
         <v>38</v>
       </c>
       <c r="E18" s="31" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="F18" s="31" t="s">
         <v>38</v>
@@ -4454,7 +4460,7 @@
         <v>38</v>
       </c>
       <c r="E19" s="55" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="F19" s="99" t="s">
         <v>38</v>
@@ -4514,7 +4520,7 @@
         <v>20</v>
       </c>
       <c r="E21" s="51" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="F21" s="31" t="s">
         <v>38</v>
@@ -4599,8 +4605,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0B91B1FF-D207-4871-B787-27544A9D3030}">
   <dimension ref="A1:P47"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="E40" sqref="E40"/>
+    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4857,7 +4863,7 @@
         <v>38</v>
       </c>
       <c r="E9" s="80" t="s">
-        <v>139</v>
+        <v>297</v>
       </c>
       <c r="F9" s="31"/>
       <c r="G9" s="40"/>
@@ -4885,7 +4891,7 @@
         <v>38</v>
       </c>
       <c r="E10" s="81" t="s">
-        <v>244</v>
+        <v>299</v>
       </c>
       <c r="F10" s="31"/>
       <c r="G10" s="40"/>
@@ -4913,7 +4919,7 @@
         <v>38</v>
       </c>
       <c r="E11" s="51" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="F11" s="31"/>
       <c r="G11" s="40"/>
@@ -4941,7 +4947,7 @@
         <v>38</v>
       </c>
       <c r="E12" s="80" t="s">
-        <v>140</v>
+        <v>298</v>
       </c>
       <c r="F12" s="31"/>
       <c r="G12" s="40"/>
@@ -4969,7 +4975,7 @@
         <v>38</v>
       </c>
       <c r="E13" s="82" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="F13" s="67"/>
       <c r="G13" s="83"/>
@@ -5241,7 +5247,7 @@
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A22" s="43" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="B22" s="44" t="s">
         <v>69</v>
@@ -5285,7 +5291,7 @@
         <v>20</v>
       </c>
       <c r="E23" s="31" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="F23" s="31" t="s">
         <v>38</v>
@@ -5320,10 +5326,10 @@
         <v>38</v>
       </c>
       <c r="F24" s="51" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="G24" s="93" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="H24" s="79" t="s">
         <v>38</v>
@@ -5352,10 +5358,10 @@
         <v>38</v>
       </c>
       <c r="F25" s="51" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="G25" s="93" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="H25" s="79" t="s">
         <v>38</v>
@@ -5384,10 +5390,10 @@
         <v>38</v>
       </c>
       <c r="F26" s="51" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="G26" s="93" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="H26" s="79" t="s">
         <v>38</v>
@@ -5509,7 +5515,7 @@
         <v>20</v>
       </c>
       <c r="E30" s="31" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="F30" s="31" t="s">
         <v>38</v>
@@ -5529,7 +5535,7 @@
     </row>
     <row r="31" spans="1:10" ht="24" x14ac:dyDescent="0.3">
       <c r="A31" s="43" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="B31" s="44" t="s">
         <v>69</v>
@@ -5541,13 +5547,13 @@
         <v>38</v>
       </c>
       <c r="E31" s="31" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="F31" s="31" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="G31" s="40" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="H31" s="79" t="s">
         <v>38</v>
@@ -5576,10 +5582,10 @@
         <v>38</v>
       </c>
       <c r="F32" s="31" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="G32" s="94" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="H32" s="79" t="s">
         <v>38</v>
@@ -5753,10 +5759,10 @@
     </row>
     <row r="38" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A38" s="85" t="s">
+        <v>278</v>
+      </c>
+      <c r="B38" s="44" t="s">
         <v>279</v>
-      </c>
-      <c r="B38" s="44" t="s">
-        <v>280</v>
       </c>
       <c r="C38" s="45" t="s">
         <v>18</v>
@@ -5904,7 +5910,7 @@
     </row>
     <row r="43" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A43" s="5" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="B43" s="6" t="s">
         <v>34</v>
@@ -5922,10 +5928,10 @@
         <v>38</v>
       </c>
       <c r="I43" s="107" t="s">
+        <v>295</v>
+      </c>
+      <c r="J43" s="108" t="s">
         <v>296</v>
-      </c>
-      <c r="J43" s="108" t="s">
-        <v>297</v>
       </c>
       <c r="K43" s="5"/>
       <c r="L43" s="5"/>
@@ -6012,7 +6018,7 @@
         <v>20</v>
       </c>
       <c r="E46" s="31" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="F46" s="31"/>
       <c r="G46" s="94"/>
@@ -6043,10 +6049,10 @@
         <v>38</v>
       </c>
       <c r="F47" s="65" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="G47" s="95" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="H47" s="79" t="s">
         <v>38</v>

--- a/Idaho/WaterAllocation/ID_PoU_Allocation Schema Mapping to WaDE_QA.xlsx
+++ b/Idaho/WaterAllocation/ID_PoU_Allocation Schema Mapping to WaDE_QA.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25225"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rjame\Documents\WSWC Documents\MappingStatesDataToWaDE2.0\Idaho\WaterAllocation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{757E2E07-1144-4C23-9D38-2FABB5C38FF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4CAD620-1C64-42E2-B95D-89CFBFEC123A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-23148" yWindow="1692" windowWidth="23256" windowHeight="12456" tabRatio="714" activeTab="6" xr2:uid="{10FC1BAB-5472-410C-A2F0-85DCDF5389F8}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16776" tabRatio="714" activeTab="6" xr2:uid="{10FC1BAB-5472-410C-A2F0-85DCDF5389F8}"/>
   </bookViews>
   <sheets>
     <sheet name="Mapping Notes" sheetId="10" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="969" uniqueCount="300">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="974" uniqueCount="302">
   <si>
     <t>Name</t>
   </si>
@@ -487,9 +487,6 @@
   </si>
   <si>
     <t>Water Administration for the State of Colorado</t>
-  </si>
-  <si>
-    <t>PrimaryUseCategory</t>
   </si>
   <si>
     <t>BeneficialUseCategory</t>
@@ -958,6 +955,15 @@
   </si>
   <si>
     <t>IDwr_O1</t>
+  </si>
+  <si>
+    <t>AllocationUUID</t>
+  </si>
+  <si>
+    <t>IDwr_WR + counter</t>
+  </si>
+  <si>
+    <t>PrimaryBeneficialUseCategory</t>
   </si>
 </sst>
 </file>
@@ -1736,7 +1742,7 @@
     <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="109">
+  <cellXfs count="110">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -2057,6 +2063,9 @@
     </xf>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="42">
@@ -2427,69 +2436,69 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" s="54" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="B1" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" s="54" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B2" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" s="54" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="B4" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B5" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B6" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B8" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B9" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B11" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B12" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A17" s="54" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="B17" s="92" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B18" s="92" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.3">
@@ -2553,10 +2562,10 @@
         <v>142</v>
       </c>
       <c r="F2" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="G2" s="4" t="s">
         <v>158</v>
-      </c>
-      <c r="G2" s="4" t="s">
-        <v>159</v>
       </c>
       <c r="H2" s="2" t="s">
         <v>4</v>
@@ -2597,7 +2606,7 @@
         <v>11</v>
       </c>
       <c r="J3" s="96" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -2614,7 +2623,7 @@
         <v>38</v>
       </c>
       <c r="E4" s="56" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="F4" s="37"/>
       <c r="G4" s="38"/>
@@ -2625,7 +2634,7 @@
         <v>139</v>
       </c>
       <c r="J4" s="96" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="5" spans="1:10" s="43" customFormat="1" x14ac:dyDescent="0.3">
@@ -2642,7 +2651,7 @@
         <v>20</v>
       </c>
       <c r="E5" s="65" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="F5" s="99"/>
       <c r="G5" s="94"/>
@@ -2653,7 +2662,7 @@
         <v>108</v>
       </c>
       <c r="J5" s="96" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
     </row>
     <row r="6" spans="1:10" s="43" customFormat="1" x14ac:dyDescent="0.3">
@@ -2670,7 +2679,7 @@
         <v>38</v>
       </c>
       <c r="E6" s="99" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="F6" s="99"/>
       <c r="G6" s="94"/>
@@ -2681,7 +2690,7 @@
         <v>0.5</v>
       </c>
       <c r="J6" s="96" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="7" spans="1:10" s="43" customFormat="1" x14ac:dyDescent="0.3">
@@ -2698,7 +2707,7 @@
         <v>38</v>
       </c>
       <c r="E7" s="99" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="F7" s="99"/>
       <c r="G7" s="94"/>
@@ -2709,7 +2718,7 @@
         <v>38</v>
       </c>
       <c r="J7" s="96" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="8" spans="1:10" s="43" customFormat="1" x14ac:dyDescent="0.3">
@@ -2726,7 +2735,7 @@
         <v>20</v>
       </c>
       <c r="E8" s="99" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="F8" s="99"/>
       <c r="G8" s="94"/>
@@ -2734,10 +2743,10 @@
         <v>38</v>
       </c>
       <c r="I8" s="99" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="J8" s="96" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
     </row>
     <row r="9" spans="1:10" s="43" customFormat="1" ht="24" x14ac:dyDescent="0.3">
@@ -2754,7 +2763,7 @@
         <v>38</v>
       </c>
       <c r="E9" s="51" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="F9" s="99"/>
       <c r="G9" s="94"/>
@@ -2763,7 +2772,7 @@
       </c>
       <c r="I9" s="51"/>
       <c r="J9" s="96" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="10" spans="1:10" s="43" customFormat="1" x14ac:dyDescent="0.3">
@@ -2780,7 +2789,7 @@
         <v>38</v>
       </c>
       <c r="E10" s="65" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="F10" s="99"/>
       <c r="G10" s="94"/>
@@ -2791,7 +2800,7 @@
         <v>143</v>
       </c>
       <c r="J10" s="96" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="11" spans="1:10" s="43" customFormat="1" x14ac:dyDescent="0.3">
@@ -2808,7 +2817,7 @@
         <v>38</v>
       </c>
       <c r="E11" s="99" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="F11" s="99"/>
       <c r="G11" s="94"/>
@@ -2819,7 +2828,7 @@
         <v>107</v>
       </c>
       <c r="J11" s="96" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="12" spans="1:10" s="43" customFormat="1" x14ac:dyDescent="0.3">
@@ -2836,7 +2845,7 @@
         <v>20</v>
       </c>
       <c r="E12" s="65" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="F12" s="99"/>
       <c r="G12" s="94"/>
@@ -2847,7 +2856,7 @@
         <v>109</v>
       </c>
       <c r="J12" s="96" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
   </sheetData>
@@ -2906,10 +2915,10 @@
         <v>142</v>
       </c>
       <c r="F2" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="G2" s="4" t="s">
         <v>158</v>
-      </c>
-      <c r="G2" s="4" t="s">
-        <v>159</v>
       </c>
       <c r="H2" s="2" t="s">
         <v>4</v>
@@ -2944,7 +2953,7 @@
         <v>16</v>
       </c>
       <c r="J3" s="96" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -2961,7 +2970,7 @@
         <v>38</v>
       </c>
       <c r="E4" s="56" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="F4" s="37"/>
       <c r="G4" s="38"/>
@@ -2972,7 +2981,7 @@
         <v>140</v>
       </c>
       <c r="J4" s="96" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.3">
@@ -3000,7 +3009,7 @@
         <v>1</v>
       </c>
       <c r="J5" s="96" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.3">
@@ -3028,7 +3037,7 @@
         <v>111</v>
       </c>
       <c r="J6" s="96" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.3">
@@ -3056,7 +3065,7 @@
         <v>110</v>
       </c>
       <c r="J7" s="96" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.3">
@@ -3084,7 +3093,7 @@
         <v>113</v>
       </c>
       <c r="J8" s="96" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.3">
@@ -3112,7 +3121,7 @@
         <v>114</v>
       </c>
       <c r="J9" s="96" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.3">
@@ -3140,7 +3149,7 @@
         <v>10</v>
       </c>
       <c r="J10" s="96" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.3">
@@ -3168,7 +3177,7 @@
         <v>112</v>
       </c>
       <c r="J11" s="96" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.3">
@@ -3196,7 +3205,7 @@
         <v>144</v>
       </c>
       <c r="J12" s="96" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.3">
@@ -3224,7 +3233,7 @@
         <v>115</v>
       </c>
       <c r="J13" s="96" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
   </sheetData>
@@ -3283,10 +3292,10 @@
         <v>142</v>
       </c>
       <c r="F2" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="G2" s="4" t="s">
         <v>158</v>
-      </c>
-      <c r="G2" s="4" t="s">
-        <v>159</v>
       </c>
       <c r="H2" s="2" t="s">
         <v>4</v>
@@ -3327,7 +3336,7 @@
         <v>1</v>
       </c>
       <c r="J3" s="96" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -3344,7 +3353,7 @@
         <v>38</v>
       </c>
       <c r="E4" s="49" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="F4" s="37"/>
       <c r="G4" s="38"/>
@@ -3355,7 +3364,7 @@
         <v>126</v>
       </c>
       <c r="J4" s="96" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.3">
@@ -3372,7 +3381,7 @@
         <v>38</v>
       </c>
       <c r="E5" s="58" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="F5" s="20"/>
       <c r="G5" s="21"/>
@@ -3383,7 +3392,7 @@
         <v>130</v>
       </c>
       <c r="J5" s="96" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.3">
@@ -3400,7 +3409,7 @@
         <v>38</v>
       </c>
       <c r="E6" s="58" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="F6" s="20"/>
       <c r="G6" s="21"/>
@@ -3411,7 +3420,7 @@
         <v>129</v>
       </c>
       <c r="J6" s="96" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="7" spans="1:10" ht="24" x14ac:dyDescent="0.3">
@@ -3428,7 +3437,7 @@
         <v>38</v>
       </c>
       <c r="E7" s="58" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="F7" s="20"/>
       <c r="G7" s="21"/>
@@ -3439,7 +3448,7 @@
         <v>127</v>
       </c>
       <c r="J7" s="96" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.3">
@@ -3456,7 +3465,7 @@
         <v>38</v>
       </c>
       <c r="E8" s="58" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="F8" s="20"/>
       <c r="G8" s="21"/>
@@ -3467,7 +3476,7 @@
         <v>147</v>
       </c>
       <c r="J8" s="96" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.3">
@@ -3484,7 +3493,7 @@
         <v>38</v>
       </c>
       <c r="E9" s="58" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="F9" s="20"/>
       <c r="G9" s="21"/>
@@ -3495,7 +3504,7 @@
         <v>128</v>
       </c>
       <c r="J9" s="96" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.3">
@@ -3512,7 +3521,7 @@
         <v>38</v>
       </c>
       <c r="E10" s="58" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="F10" s="20"/>
       <c r="G10" s="21"/>
@@ -3523,7 +3532,7 @@
         <v>148</v>
       </c>
       <c r="J10" s="96" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="11" spans="1:10" ht="24" x14ac:dyDescent="0.3">
@@ -3540,7 +3549,7 @@
         <v>38</v>
       </c>
       <c r="E11" s="58" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="F11" s="20"/>
       <c r="G11" s="21"/>
@@ -3551,7 +3560,7 @@
         <v>127</v>
       </c>
       <c r="J11" s="96" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.3">
@@ -3568,7 +3577,7 @@
         <v>38</v>
       </c>
       <c r="E12" s="18" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="F12" s="20"/>
       <c r="G12" s="21"/>
@@ -3579,7 +3588,7 @@
         <v>131</v>
       </c>
       <c r="J12" s="96" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.3">
@@ -3662,10 +3671,10 @@
         <v>142</v>
       </c>
       <c r="F2" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="G2" s="4" t="s">
         <v>158</v>
-      </c>
-      <c r="G2" s="4" t="s">
-        <v>159</v>
       </c>
       <c r="H2" s="2" t="s">
         <v>4</v>
@@ -3704,7 +3713,7 @@
         <v>34658</v>
       </c>
       <c r="J3" s="96" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -3721,7 +3730,7 @@
         <v>38</v>
       </c>
       <c r="E4" s="66" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="F4" s="67"/>
       <c r="G4" s="102"/>
@@ -3730,7 +3739,7 @@
         <v>116</v>
       </c>
       <c r="J4" s="96" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.3">
@@ -3747,7 +3756,7 @@
         <v>38</v>
       </c>
       <c r="E5" s="55" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="F5" s="55"/>
       <c r="G5" s="94"/>
@@ -3756,7 +3765,7 @@
         <v>38</v>
       </c>
       <c r="J5" s="96" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.3">
@@ -3773,7 +3782,7 @@
         <v>20</v>
       </c>
       <c r="E6" s="55" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="F6" s="55"/>
       <c r="G6" s="94"/>
@@ -3782,7 +3791,7 @@
         <v>38</v>
       </c>
       <c r="J6" s="96" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.3">
@@ -3808,7 +3817,7 @@
         <v>118</v>
       </c>
       <c r="J7" s="96" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="8" spans="1:10" s="57" customFormat="1" x14ac:dyDescent="0.3">
@@ -3828,17 +3837,17 @@
         <v>38</v>
       </c>
       <c r="F8" s="51" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="G8" s="93" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="H8" s="59"/>
       <c r="I8" s="65" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="J8" s="96" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="9" spans="1:10" s="57" customFormat="1" x14ac:dyDescent="0.3">
@@ -3855,7 +3864,7 @@
         <v>38</v>
       </c>
       <c r="E9" s="55" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="F9" s="31" t="s">
         <v>38</v>
@@ -3868,7 +3877,7 @@
         <v>17839</v>
       </c>
       <c r="J9" s="96" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="10" spans="1:10" ht="216" x14ac:dyDescent="0.3">
@@ -3885,20 +3894,20 @@
         <v>20</v>
       </c>
       <c r="E10" s="51" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="F10" s="51" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="G10" s="93" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="H10" s="22"/>
       <c r="I10" s="65" t="s">
         <v>108</v>
       </c>
       <c r="J10" s="96" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.3">
@@ -3965,10 +3974,10 @@
         <v>142</v>
       </c>
       <c r="F2" s="73" t="s">
+        <v>157</v>
+      </c>
+      <c r="G2" s="74" t="s">
         <v>158</v>
-      </c>
-      <c r="G2" s="74" t="s">
-        <v>159</v>
       </c>
       <c r="H2" s="75" t="s">
         <v>4</v>
@@ -4007,7 +4016,7 @@
         <v>39035</v>
       </c>
       <c r="J3" s="96" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -4022,7 +4031,7 @@
         <v>38</v>
       </c>
       <c r="E4" s="66" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="F4" s="67" t="s">
         <v>38</v>
@@ -4035,7 +4044,7 @@
         <v>119</v>
       </c>
       <c r="J4" s="96" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.3">
@@ -4052,7 +4061,7 @@
         <v>38</v>
       </c>
       <c r="E5" s="55" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="F5" s="99" t="s">
         <v>38</v>
@@ -4065,7 +4074,7 @@
         <v>117</v>
       </c>
       <c r="J5" s="96" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.3">
@@ -4082,7 +4091,7 @@
         <v>20</v>
       </c>
       <c r="E6" s="101" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="F6" s="31" t="s">
         <v>38</v>
@@ -4095,7 +4104,7 @@
         <v>124</v>
       </c>
       <c r="J6" s="96" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.3">
@@ -4112,7 +4121,7 @@
         <v>38</v>
       </c>
       <c r="E7" s="31" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="F7" s="31" t="s">
         <v>38</v>
@@ -4125,7 +4134,7 @@
         <v>38</v>
       </c>
       <c r="J7" s="97" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.3">
@@ -4151,7 +4160,7 @@
         <v>125</v>
       </c>
       <c r="J8" s="96" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.3">
@@ -4168,7 +4177,7 @@
         <v>38</v>
       </c>
       <c r="E9" s="31" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="F9" s="31" t="s">
         <v>38</v>
@@ -4179,7 +4188,7 @@
       <c r="H9" s="48"/>
       <c r="I9" s="51"/>
       <c r="J9" s="96" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.3">
@@ -4196,7 +4205,7 @@
         <v>20</v>
       </c>
       <c r="E10" s="31" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="F10" s="31" t="s">
         <v>38</v>
@@ -4209,7 +4218,7 @@
         <v>38</v>
       </c>
       <c r="J10" s="96" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.3">
@@ -4226,7 +4235,7 @@
         <v>38</v>
       </c>
       <c r="E11" s="31" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="F11" s="31" t="s">
         <v>38</v>
@@ -4239,7 +4248,7 @@
         <v>38</v>
       </c>
       <c r="J11" s="97" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.3">
@@ -4256,7 +4265,7 @@
         <v>38</v>
       </c>
       <c r="E12" s="31" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="F12" s="31" t="s">
         <v>38</v>
@@ -4269,7 +4278,7 @@
         <v>38</v>
       </c>
       <c r="J12" s="97" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.3">
@@ -4286,10 +4295,10 @@
         <v>38</v>
       </c>
       <c r="E13" s="31" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="F13" s="51" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="G13" s="94" t="s">
         <v>55</v>
@@ -4298,7 +4307,7 @@
         <v>122</v>
       </c>
       <c r="J13" s="96" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.3">
@@ -4315,10 +4324,10 @@
         <v>38</v>
       </c>
       <c r="E14" s="31" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="F14" s="51" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="G14" s="94" t="s">
         <v>54</v>
@@ -4327,7 +4336,7 @@
         <v>-1067.700435</v>
       </c>
       <c r="J14" s="96" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.3">
@@ -4344,7 +4353,7 @@
         <v>38</v>
       </c>
       <c r="E15" s="31" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="F15" s="31" t="s">
         <v>38</v>
@@ -4357,7 +4366,7 @@
         <v>38</v>
       </c>
       <c r="J15" s="96" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.3">
@@ -4374,7 +4383,7 @@
         <v>20</v>
       </c>
       <c r="E16" s="31" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="F16" s="31" t="s">
         <v>38</v>
@@ -4387,12 +4396,12 @@
         <v>38</v>
       </c>
       <c r="J16" s="96" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A17" s="5" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="B17" s="6" t="s">
         <v>16</v>
@@ -4404,7 +4413,7 @@
         <v>38</v>
       </c>
       <c r="E17" s="51" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="F17" s="31" t="s">
         <v>38</v>
@@ -4414,7 +4423,7 @@
       </c>
       <c r="H17" s="88"/>
       <c r="I17" s="89" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="J17" s="103"/>
     </row>
@@ -4430,7 +4439,7 @@
         <v>38</v>
       </c>
       <c r="E18" s="31" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="F18" s="31" t="s">
         <v>38</v>
@@ -4443,7 +4452,7 @@
         <v>120</v>
       </c>
       <c r="J18" s="96" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.3">
@@ -4460,7 +4469,7 @@
         <v>38</v>
       </c>
       <c r="E19" s="55" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="F19" s="99" t="s">
         <v>38</v>
@@ -4473,7 +4482,7 @@
         <v>3703994</v>
       </c>
       <c r="J19" s="96" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="20" spans="1:10" ht="24" x14ac:dyDescent="0.3">
@@ -4490,7 +4499,7 @@
         <v>38</v>
       </c>
       <c r="E20" s="31" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="F20" s="31" t="s">
         <v>38</v>
@@ -4503,7 +4512,7 @@
         <v>123</v>
       </c>
       <c r="J20" s="97" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.3">
@@ -4520,7 +4529,7 @@
         <v>20</v>
       </c>
       <c r="E21" s="51" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="F21" s="31" t="s">
         <v>38</v>
@@ -4533,7 +4542,7 @@
         <v>121</v>
       </c>
       <c r="J21" s="96" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.3">
@@ -4559,7 +4568,7 @@
         <v>141</v>
       </c>
       <c r="J22" s="96" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.3">
@@ -4576,7 +4585,7 @@
         <v>38</v>
       </c>
       <c r="E23" s="31" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="F23" s="31" t="s">
         <v>38</v>
@@ -4589,7 +4598,7 @@
         <v>38</v>
       </c>
       <c r="J23" s="97" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
   </sheetData>
@@ -4603,10 +4612,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0B91B1FF-D207-4871-B787-27544A9D3030}">
-  <dimension ref="A1:P47"/>
+  <dimension ref="A1:P48"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="C38" sqref="C38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4648,10 +4657,10 @@
         <v>142</v>
       </c>
       <c r="F2" s="73" t="s">
+        <v>157</v>
+      </c>
+      <c r="G2" s="74" t="s">
         <v>158</v>
-      </c>
-      <c r="G2" s="74" t="s">
-        <v>159</v>
       </c>
       <c r="H2" s="75" t="s">
         <v>4</v>
@@ -4686,7 +4695,7 @@
         <v>50004</v>
       </c>
       <c r="J3" s="96" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.3">
@@ -4718,7 +4727,7 @@
         <v>43</v>
       </c>
       <c r="J4" s="96" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.3">
@@ -4750,7 +4759,7 @@
         <v>1</v>
       </c>
       <c r="J5" s="96" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.3">
@@ -4782,7 +4791,7 @@
         <v>39035</v>
       </c>
       <c r="J6" s="96" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.3">
@@ -4814,7 +4823,7 @@
         <v>63</v>
       </c>
       <c r="J7" s="96" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.3">
@@ -4846,15 +4855,15 @@
         <v>371091</v>
       </c>
       <c r="J8" s="96" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A9" s="43" t="s">
-        <v>6</v>
+        <v>299</v>
       </c>
       <c r="B9" s="44" t="s">
-        <v>67</v>
+        <v>34</v>
       </c>
       <c r="C9" s="45" t="s">
         <v>38</v>
@@ -4862,24 +4871,18 @@
       <c r="D9" s="47" t="s">
         <v>38</v>
       </c>
-      <c r="E9" s="80" t="s">
-        <v>297</v>
+      <c r="E9" s="109" t="s">
+        <v>300</v>
       </c>
       <c r="F9" s="31"/>
       <c r="G9" s="40"/>
-      <c r="H9" s="79" t="s">
-        <v>38</v>
-      </c>
-      <c r="I9" s="52" t="s">
-        <v>38</v>
-      </c>
-      <c r="J9" s="96" t="s">
-        <v>190</v>
-      </c>
+      <c r="H9" s="79"/>
+      <c r="I9" s="52"/>
+      <c r="J9" s="96"/>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A10" s="43" t="s">
-        <v>72</v>
+        <v>6</v>
       </c>
       <c r="B10" s="44" t="s">
         <v>67</v>
@@ -4890,8 +4893,8 @@
       <c r="D10" s="47" t="s">
         <v>38</v>
       </c>
-      <c r="E10" s="81" t="s">
-        <v>299</v>
+      <c r="E10" s="80" t="s">
+        <v>296</v>
       </c>
       <c r="F10" s="31"/>
       <c r="G10" s="40"/>
@@ -4902,12 +4905,12 @@
         <v>38</v>
       </c>
       <c r="J10" s="96" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A11" s="43" t="s">
-        <v>49</v>
+        <v>72</v>
       </c>
       <c r="B11" s="44" t="s">
         <v>67</v>
@@ -4918,8 +4921,8 @@
       <c r="D11" s="47" t="s">
         <v>38</v>
       </c>
-      <c r="E11" s="51" t="s">
-        <v>268</v>
+      <c r="E11" s="81" t="s">
+        <v>298</v>
       </c>
       <c r="F11" s="31"/>
       <c r="G11" s="40"/>
@@ -4930,12 +4933,12 @@
         <v>38</v>
       </c>
       <c r="J11" s="96" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A12" s="43" t="s">
-        <v>32</v>
+        <v>49</v>
       </c>
       <c r="B12" s="44" t="s">
         <v>67</v>
@@ -4946,8 +4949,8 @@
       <c r="D12" s="47" t="s">
         <v>38</v>
       </c>
-      <c r="E12" s="80" t="s">
-        <v>298</v>
+      <c r="E12" s="51" t="s">
+        <v>267</v>
       </c>
       <c r="F12" s="31"/>
       <c r="G12" s="40"/>
@@ -4958,84 +4961,80 @@
         <v>38</v>
       </c>
       <c r="J12" s="96" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="61" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A13" s="43" t="s">
+        <v>32</v>
+      </c>
+      <c r="B13" s="44" t="s">
+        <v>67</v>
+      </c>
+      <c r="C13" s="45" t="s">
+        <v>38</v>
+      </c>
+      <c r="D13" s="47" t="s">
+        <v>38</v>
+      </c>
+      <c r="E13" s="80" t="s">
+        <v>297</v>
+      </c>
+      <c r="F13" s="31"/>
+      <c r="G13" s="40"/>
+      <c r="H13" s="79" t="s">
+        <v>38</v>
+      </c>
+      <c r="I13" s="52" t="s">
+        <v>38</v>
+      </c>
+      <c r="J13" s="96" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A14" s="61" t="s">
         <v>40</v>
       </c>
-      <c r="B13" s="62" t="s">
+      <c r="B14" s="62" t="s">
         <v>67</v>
       </c>
-      <c r="C13" s="63" t="s">
-        <v>38</v>
-      </c>
-      <c r="D13" s="64" t="s">
-        <v>38</v>
-      </c>
-      <c r="E13" s="82" t="s">
-        <v>269</v>
-      </c>
-      <c r="F13" s="67"/>
-      <c r="G13" s="83"/>
-      <c r="H13" s="79" t="s">
-        <v>38</v>
-      </c>
-      <c r="I13" s="52" t="s">
-        <v>38</v>
-      </c>
-      <c r="J13" s="96" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A14" s="43" t="s">
-        <v>151</v>
-      </c>
-      <c r="B14" s="44" t="s">
-        <v>33</v>
-      </c>
-      <c r="C14" s="45" t="s">
-        <v>18</v>
-      </c>
-      <c r="D14" s="47" t="s">
-        <v>20</v>
-      </c>
-      <c r="E14" s="31" t="s">
-        <v>255</v>
-      </c>
-      <c r="F14" s="31" t="s">
-        <v>38</v>
-      </c>
-      <c r="G14" s="40" t="s">
-        <v>38</v>
-      </c>
+      <c r="C14" s="63" t="s">
+        <v>38</v>
+      </c>
+      <c r="D14" s="64" t="s">
+        <v>38</v>
+      </c>
+      <c r="E14" s="82" t="s">
+        <v>268</v>
+      </c>
+      <c r="F14" s="67"/>
+      <c r="G14" s="83"/>
       <c r="H14" s="79" t="s">
         <v>38</v>
       </c>
-      <c r="I14" s="51">
-        <v>5363</v>
+      <c r="I14" s="52" t="s">
+        <v>38</v>
       </c>
       <c r="J14" s="96" t="s">
-        <v>197</v>
+        <v>188</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A15" s="43" t="s">
-        <v>94</v>
+        <v>150</v>
       </c>
       <c r="B15" s="44" t="s">
-        <v>68</v>
-      </c>
-      <c r="C15" s="44" t="s">
+        <v>33</v>
+      </c>
+      <c r="C15" s="45" t="s">
         <v>18</v>
       </c>
       <c r="D15" s="47" t="s">
-        <v>38</v>
+        <v>20</v>
       </c>
       <c r="E15" s="31" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="F15" s="31" t="s">
         <v>38</v>
@@ -5046,16 +5045,16 @@
       <c r="H15" s="79" t="s">
         <v>38</v>
       </c>
-      <c r="I15" s="51" t="s">
-        <v>133</v>
-      </c>
-      <c r="J15" s="97" t="s">
-        <v>160</v>
+      <c r="I15" s="51">
+        <v>5363</v>
+      </c>
+      <c r="J15" s="96" t="s">
+        <v>196</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A16" s="43" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B16" s="44" t="s">
         <v>68</v>
@@ -5067,7 +5066,7 @@
         <v>38</v>
       </c>
       <c r="E16" s="31" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="F16" s="31" t="s">
         <v>38</v>
@@ -5082,24 +5081,24 @@
         <v>133</v>
       </c>
       <c r="J16" s="97" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A17" s="43" t="s">
-        <v>85</v>
+        <v>93</v>
       </c>
       <c r="B17" s="44" t="s">
-        <v>34</v>
+        <v>68</v>
       </c>
       <c r="C17" s="44" t="s">
         <v>18</v>
       </c>
       <c r="D17" s="47" t="s">
-        <v>20</v>
+        <v>38</v>
       </c>
       <c r="E17" s="31" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="F17" s="31" t="s">
         <v>38</v>
@@ -5111,27 +5110,27 @@
         <v>38</v>
       </c>
       <c r="I17" s="51" t="s">
-        <v>156</v>
-      </c>
-      <c r="J17" s="96" t="s">
-        <v>231</v>
+        <v>133</v>
+      </c>
+      <c r="J17" s="97" t="s">
+        <v>159</v>
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A18" s="43" t="s">
-        <v>95</v>
+        <v>85</v>
       </c>
       <c r="B18" s="44" t="s">
-        <v>15</v>
+        <v>34</v>
       </c>
       <c r="C18" s="44" t="s">
         <v>18</v>
       </c>
       <c r="D18" s="47" t="s">
-        <v>38</v>
+        <v>20</v>
       </c>
       <c r="E18" s="31" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="F18" s="31" t="s">
         <v>38</v>
@@ -5143,18 +5142,18 @@
         <v>38</v>
       </c>
       <c r="I18" s="51" t="s">
-        <v>138</v>
-      </c>
-      <c r="J18" s="97" t="s">
-        <v>160</v>
+        <v>155</v>
+      </c>
+      <c r="J18" s="96" t="s">
+        <v>230</v>
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A19" s="43" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="B19" s="44" t="s">
-        <v>34</v>
+        <v>15</v>
       </c>
       <c r="C19" s="44" t="s">
         <v>18</v>
@@ -5163,7 +5162,7 @@
         <v>38</v>
       </c>
       <c r="E19" s="31" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="F19" s="31" t="s">
         <v>38</v>
@@ -5175,18 +5174,18 @@
         <v>38</v>
       </c>
       <c r="I19" s="51" t="s">
-        <v>137</v>
-      </c>
-      <c r="J19" s="96" t="s">
-        <v>195</v>
+        <v>138</v>
+      </c>
+      <c r="J19" s="97" t="s">
+        <v>159</v>
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A20" s="43" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="B20" s="44" t="s">
-        <v>69</v>
+        <v>34</v>
       </c>
       <c r="C20" s="44" t="s">
         <v>18</v>
@@ -5195,7 +5194,7 @@
         <v>38</v>
       </c>
       <c r="E20" s="31" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="F20" s="31" t="s">
         <v>38</v>
@@ -5206,28 +5205,28 @@
       <c r="H20" s="79" t="s">
         <v>38</v>
       </c>
-      <c r="I20" s="52" t="s">
-        <v>38</v>
-      </c>
-      <c r="J20" s="97" t="s">
-        <v>160</v>
+      <c r="I20" s="51" t="s">
+        <v>137</v>
+      </c>
+      <c r="J20" s="96" t="s">
+        <v>194</v>
       </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A21" s="43" t="s">
-        <v>153</v>
+        <v>88</v>
       </c>
       <c r="B21" s="44" t="s">
-        <v>33</v>
+        <v>69</v>
       </c>
       <c r="C21" s="44" t="s">
         <v>18</v>
       </c>
       <c r="D21" s="47" t="s">
-        <v>20</v>
+        <v>38</v>
       </c>
       <c r="E21" s="31" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="F21" s="31" t="s">
         <v>38</v>
@@ -5238,117 +5237,117 @@
       <c r="H21" s="79" t="s">
         <v>38</v>
       </c>
-      <c r="I21" s="51">
-        <v>5200</v>
-      </c>
-      <c r="J21" s="96" t="s">
-        <v>196</v>
+      <c r="I21" s="52" t="s">
+        <v>38</v>
+      </c>
+      <c r="J21" s="97" t="s">
+        <v>159</v>
       </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A22" s="43" t="s">
-        <v>276</v>
+        <v>152</v>
       </c>
       <c r="B22" s="44" t="s">
-        <v>69</v>
+        <v>33</v>
       </c>
       <c r="C22" s="44" t="s">
         <v>18</v>
       </c>
       <c r="D22" s="47" t="s">
-        <v>38</v>
+        <v>20</v>
       </c>
       <c r="E22" s="31" t="s">
-        <v>255</v>
-      </c>
-      <c r="F22" s="99" t="s">
-        <v>38</v>
-      </c>
-      <c r="G22" s="94" t="s">
+        <v>254</v>
+      </c>
+      <c r="F22" s="31" t="s">
+        <v>38</v>
+      </c>
+      <c r="G22" s="40" t="s">
         <v>38</v>
       </c>
       <c r="H22" s="79" t="s">
         <v>38</v>
       </c>
       <c r="I22" s="51">
-        <v>1</v>
+        <v>5200</v>
       </c>
       <c r="J22" s="96" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A23" s="43" t="s">
-        <v>86</v>
+        <v>275</v>
       </c>
       <c r="B23" s="44" t="s">
-        <v>34</v>
+        <v>69</v>
       </c>
       <c r="C23" s="44" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="47" t="s">
-        <v>20</v>
+        <v>38</v>
       </c>
       <c r="E23" s="31" t="s">
-        <v>285</v>
-      </c>
-      <c r="F23" s="31" t="s">
-        <v>38</v>
-      </c>
-      <c r="G23" s="40" t="s">
+        <v>254</v>
+      </c>
+      <c r="F23" s="99" t="s">
+        <v>38</v>
+      </c>
+      <c r="G23" s="94" t="s">
         <v>38</v>
       </c>
       <c r="H23" s="79" t="s">
         <v>38</v>
       </c>
-      <c r="I23" s="51" t="s">
-        <v>136</v>
+      <c r="I23" s="51">
+        <v>1</v>
       </c>
       <c r="J23" s="96" t="s">
-        <v>234</v>
+        <v>197</v>
       </c>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A24" s="43" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="B24" s="44" t="s">
         <v>34</v>
       </c>
-      <c r="C24" s="45" t="s">
+      <c r="C24" s="44" t="s">
         <v>18</v>
       </c>
       <c r="D24" s="47" t="s">
-        <v>38</v>
+        <v>20</v>
       </c>
       <c r="E24" s="31" t="s">
-        <v>38</v>
-      </c>
-      <c r="F24" s="51" t="s">
-        <v>273</v>
-      </c>
-      <c r="G24" s="93" t="s">
-        <v>270</v>
+        <v>284</v>
+      </c>
+      <c r="F24" s="31" t="s">
+        <v>38</v>
+      </c>
+      <c r="G24" s="40" t="s">
+        <v>38</v>
       </c>
       <c r="H24" s="79" t="s">
         <v>38</v>
       </c>
       <c r="I24" s="51" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="J24" s="96" t="s">
-        <v>200</v>
+        <v>233</v>
       </c>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A25" s="43" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B25" s="44" t="s">
         <v>34</v>
       </c>
-      <c r="C25" s="44" t="s">
+      <c r="C25" s="45" t="s">
         <v>18</v>
       </c>
       <c r="D25" s="47" t="s">
@@ -5358,100 +5357,100 @@
         <v>38</v>
       </c>
       <c r="F25" s="51" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="G25" s="93" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="H25" s="79" t="s">
         <v>38</v>
       </c>
       <c r="I25" s="51" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="J25" s="96" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A26" s="43" t="s">
-        <v>152</v>
+        <v>84</v>
       </c>
       <c r="B26" s="44" t="s">
-        <v>33</v>
-      </c>
-      <c r="C26" s="48" t="s">
-        <v>38</v>
+        <v>34</v>
+      </c>
+      <c r="C26" s="44" t="s">
+        <v>18</v>
       </c>
       <c r="D26" s="47" t="s">
-        <v>20</v>
+        <v>38</v>
       </c>
       <c r="E26" s="31" t="s">
         <v>38</v>
       </c>
       <c r="F26" s="51" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="G26" s="93" t="s">
-        <v>286</v>
+        <v>270</v>
       </c>
       <c r="H26" s="79" t="s">
         <v>38</v>
       </c>
       <c r="I26" s="51" t="s">
-        <v>157</v>
+        <v>135</v>
       </c>
       <c r="J26" s="96" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A27" s="43" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="B27" s="44" t="s">
-        <v>15</v>
-      </c>
-      <c r="C27" s="44" t="s">
-        <v>18</v>
+        <v>33</v>
+      </c>
+      <c r="C27" s="48" t="s">
+        <v>38</v>
       </c>
       <c r="D27" s="47" t="s">
         <v>20</v>
       </c>
       <c r="E27" s="31" t="s">
-        <v>255</v>
-      </c>
-      <c r="F27" s="31" t="s">
-        <v>38</v>
-      </c>
-      <c r="G27" s="40" t="s">
-        <v>38</v>
+        <v>38</v>
+      </c>
+      <c r="F27" s="51" t="s">
+        <v>272</v>
+      </c>
+      <c r="G27" s="93" t="s">
+        <v>285</v>
       </c>
       <c r="H27" s="79" t="s">
         <v>38</v>
       </c>
-      <c r="I27" s="52" t="s">
-        <v>38</v>
+      <c r="I27" s="51" t="s">
+        <v>156</v>
       </c>
       <c r="J27" s="96" t="s">
-        <v>235</v>
+        <v>201</v>
       </c>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A28" s="43" t="s">
-        <v>104</v>
+        <v>153</v>
       </c>
       <c r="B28" s="44" t="s">
-        <v>106</v>
+        <v>15</v>
       </c>
       <c r="C28" s="44" t="s">
         <v>18</v>
       </c>
       <c r="D28" s="47" t="s">
-        <v>38</v>
+        <v>20</v>
       </c>
       <c r="E28" s="31" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="F28" s="31" t="s">
         <v>38</v>
@@ -5462,16 +5461,16 @@
       <c r="H28" s="79" t="s">
         <v>38</v>
       </c>
-      <c r="I28" s="84">
-        <v>44196</v>
+      <c r="I28" s="52" t="s">
+        <v>38</v>
       </c>
       <c r="J28" s="96" t="s">
-        <v>203</v>
+        <v>234</v>
       </c>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A29" s="43" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B29" s="44" t="s">
         <v>106</v>
@@ -5483,7 +5482,7 @@
         <v>38</v>
       </c>
       <c r="E29" s="31" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="F29" s="31" t="s">
         <v>38</v>
@@ -5495,155 +5494,155 @@
         <v>38</v>
       </c>
       <c r="I29" s="84">
-        <v>43831</v>
+        <v>44196</v>
       </c>
       <c r="J29" s="96" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A30" s="43" t="s">
-        <v>87</v>
+        <v>103</v>
       </c>
       <c r="B30" s="44" t="s">
-        <v>34</v>
+        <v>106</v>
       </c>
       <c r="C30" s="44" t="s">
         <v>18</v>
       </c>
       <c r="D30" s="47" t="s">
-        <v>20</v>
+        <v>38</v>
       </c>
       <c r="E30" s="31" t="s">
-        <v>288</v>
+        <v>254</v>
       </c>
       <c r="F30" s="31" t="s">
         <v>38</v>
       </c>
-      <c r="G30" s="94" t="s">
+      <c r="G30" s="40" t="s">
         <v>38</v>
       </c>
       <c r="H30" s="79" t="s">
         <v>38</v>
       </c>
-      <c r="I30" s="51" t="s">
-        <v>133</v>
+      <c r="I30" s="84">
+        <v>43831</v>
       </c>
       <c r="J30" s="96" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="31" spans="1:10" ht="24" x14ac:dyDescent="0.3">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A31" s="43" t="s">
-        <v>277</v>
+        <v>87</v>
       </c>
       <c r="B31" s="44" t="s">
-        <v>69</v>
+        <v>34</v>
       </c>
       <c r="C31" s="44" t="s">
         <v>18</v>
       </c>
       <c r="D31" s="47" t="s">
-        <v>38</v>
+        <v>20</v>
       </c>
       <c r="E31" s="31" t="s">
-        <v>284</v>
+        <v>287</v>
       </c>
       <c r="F31" s="31" t="s">
-        <v>273</v>
-      </c>
-      <c r="G31" s="40" t="s">
+        <v>38</v>
+      </c>
+      <c r="G31" s="94" t="s">
+        <v>38</v>
+      </c>
+      <c r="H31" s="79" t="s">
+        <v>38</v>
+      </c>
+      <c r="I31" s="51" t="s">
+        <v>133</v>
+      </c>
+      <c r="J31" s="96" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" ht="24" x14ac:dyDescent="0.3">
+      <c r="A32" s="43" t="s">
+        <v>276</v>
+      </c>
+      <c r="B32" s="44" t="s">
+        <v>69</v>
+      </c>
+      <c r="C32" s="44" t="s">
+        <v>18</v>
+      </c>
+      <c r="D32" s="47" t="s">
+        <v>38</v>
+      </c>
+      <c r="E32" s="31" t="s">
         <v>283</v>
       </c>
-      <c r="H31" s="79" t="s">
-        <v>38</v>
-      </c>
-      <c r="I31" s="51">
+      <c r="F32" s="31" t="s">
+        <v>272</v>
+      </c>
+      <c r="G32" s="40" t="s">
+        <v>282</v>
+      </c>
+      <c r="H32" s="79" t="s">
+        <v>38</v>
+      </c>
+      <c r="I32" s="51">
         <v>0</v>
       </c>
-      <c r="J31" s="96" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A32" s="43" t="s">
-        <v>150</v>
-      </c>
-      <c r="B32" s="44" t="s">
-        <v>34</v>
-      </c>
-      <c r="C32" s="48" t="s">
-        <v>38</v>
-      </c>
-      <c r="D32" s="47" t="s">
-        <v>38</v>
-      </c>
-      <c r="E32" s="31" t="s">
-        <v>38</v>
-      </c>
-      <c r="F32" s="31" t="s">
-        <v>273</v>
-      </c>
-      <c r="G32" s="94" t="s">
-        <v>272</v>
-      </c>
-      <c r="H32" s="79" t="s">
-        <v>38</v>
-      </c>
-      <c r="I32" s="52" t="s">
-        <v>38</v>
-      </c>
       <c r="J32" s="96" t="s">
-        <v>205</v>
+        <v>198</v>
       </c>
     </row>
     <row r="33" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A33" s="43" t="s">
-        <v>101</v>
+        <v>149</v>
       </c>
       <c r="B33" s="44" t="s">
         <v>34</v>
       </c>
-      <c r="C33" s="44" t="s">
-        <v>18</v>
+      <c r="C33" s="48" t="s">
+        <v>38</v>
       </c>
       <c r="D33" s="47" t="s">
         <v>38</v>
       </c>
       <c r="E33" s="31" t="s">
-        <v>255</v>
+        <v>38</v>
       </c>
       <c r="F33" s="31" t="s">
-        <v>38</v>
-      </c>
-      <c r="G33" s="40" t="s">
-        <v>38</v>
+        <v>272</v>
+      </c>
+      <c r="G33" s="94" t="s">
+        <v>271</v>
       </c>
       <c r="H33" s="79" t="s">
         <v>38</v>
       </c>
-      <c r="I33" s="51" t="s">
-        <v>133</v>
-      </c>
-      <c r="J33" s="97" t="s">
-        <v>160</v>
+      <c r="I33" s="52" t="s">
+        <v>38</v>
+      </c>
+      <c r="J33" s="96" t="s">
+        <v>204</v>
       </c>
     </row>
     <row r="34" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A34" s="43" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="B34" s="44" t="s">
-        <v>15</v>
+        <v>34</v>
       </c>
       <c r="C34" s="44" t="s">
         <v>18</v>
       </c>
       <c r="D34" s="47" t="s">
-        <v>20</v>
+        <v>38</v>
       </c>
       <c r="E34" s="31" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="F34" s="31" t="s">
         <v>38</v>
@@ -5657,13 +5656,13 @@
       <c r="I34" s="51" t="s">
         <v>133</v>
       </c>
-      <c r="J34" s="96" t="s">
-        <v>232</v>
+      <c r="J34" s="97" t="s">
+        <v>159</v>
       </c>
     </row>
     <row r="35" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A35" s="43" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="B35" s="44" t="s">
         <v>15</v>
@@ -5675,7 +5674,7 @@
         <v>20</v>
       </c>
       <c r="E35" s="31" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="F35" s="31" t="s">
         <v>38</v>
@@ -5690,79 +5689,79 @@
         <v>133</v>
       </c>
       <c r="J35" s="96" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
     </row>
     <row r="36" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A36" s="43" t="s">
-        <v>155</v>
+        <v>100</v>
       </c>
       <c r="B36" s="44" t="s">
-        <v>33</v>
-      </c>
-      <c r="C36" s="48" t="s">
-        <v>38</v>
+        <v>15</v>
+      </c>
+      <c r="C36" s="44" t="s">
+        <v>18</v>
       </c>
       <c r="D36" s="47" t="s">
-        <v>38</v>
-      </c>
-      <c r="E36" s="100">
-        <v>44288</v>
+        <v>20</v>
+      </c>
+      <c r="E36" s="31" t="s">
+        <v>254</v>
       </c>
       <c r="F36" s="31" t="s">
         <v>38</v>
       </c>
-      <c r="G36" s="94" t="s">
+      <c r="G36" s="40" t="s">
         <v>38</v>
       </c>
       <c r="H36" s="79" t="s">
         <v>38</v>
       </c>
-      <c r="I36" s="53">
-        <v>43874</v>
+      <c r="I36" s="51" t="s">
+        <v>133</v>
       </c>
       <c r="J36" s="96" t="s">
-        <v>206</v>
+        <v>232</v>
       </c>
     </row>
     <row r="37" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A37" s="43" t="s">
+        <v>154</v>
+      </c>
+      <c r="B37" s="44" t="s">
+        <v>33</v>
+      </c>
+      <c r="C37" s="48" t="s">
+        <v>38</v>
+      </c>
+      <c r="D37" s="47" t="s">
+        <v>38</v>
+      </c>
+      <c r="E37" s="100">
+        <v>44288</v>
+      </c>
+      <c r="F37" s="31" t="s">
+        <v>38</v>
+      </c>
+      <c r="G37" s="94" t="s">
+        <v>38</v>
+      </c>
+      <c r="H37" s="79" t="s">
+        <v>38</v>
+      </c>
+      <c r="I37" s="53">
+        <v>43874</v>
+      </c>
+      <c r="J37" s="96" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="38" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A38" s="43" t="s">
         <v>82</v>
       </c>
-      <c r="B37" s="44" t="s">
+      <c r="B38" s="44" t="s">
         <v>15</v>
-      </c>
-      <c r="C37" s="45" t="s">
-        <v>18</v>
-      </c>
-      <c r="D37" s="47" t="s">
-        <v>38</v>
-      </c>
-      <c r="E37" s="31" t="s">
-        <v>255</v>
-      </c>
-      <c r="F37" s="31" t="s">
-        <v>38</v>
-      </c>
-      <c r="G37" s="40" t="s">
-        <v>38</v>
-      </c>
-      <c r="H37" s="79" t="s">
-        <v>38</v>
-      </c>
-      <c r="I37" s="53">
-        <v>33187</v>
-      </c>
-      <c r="J37" s="97" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="38" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A38" s="85" t="s">
-        <v>278</v>
-      </c>
-      <c r="B38" s="44" t="s">
-        <v>279</v>
       </c>
       <c r="C38" s="45" t="s">
         <v>18</v>
@@ -5770,54 +5769,54 @@
       <c r="D38" s="47" t="s">
         <v>38</v>
       </c>
-      <c r="E38" s="31">
+      <c r="E38" s="31" t="s">
+        <v>254</v>
+      </c>
+      <c r="F38" s="31" t="s">
+        <v>38</v>
+      </c>
+      <c r="G38" s="40" t="s">
+        <v>38</v>
+      </c>
+      <c r="H38" s="79" t="s">
+        <v>38</v>
+      </c>
+      <c r="I38" s="53">
+        <v>33187</v>
+      </c>
+      <c r="J38" s="97" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="39" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A39" s="85" t="s">
+        <v>277</v>
+      </c>
+      <c r="B39" s="44" t="s">
+        <v>278</v>
+      </c>
+      <c r="C39" s="45" t="s">
+        <v>18</v>
+      </c>
+      <c r="D39" s="47" t="s">
+        <v>38</v>
+      </c>
+      <c r="E39" s="31">
         <v>0</v>
       </c>
-      <c r="F38" s="31" t="s">
-        <v>38</v>
-      </c>
-      <c r="G38" s="40" t="s">
-        <v>38</v>
-      </c>
-      <c r="H38" s="86"/>
-      <c r="I38" s="87"/>
-      <c r="J38" s="98"/>
-    </row>
-    <row r="39" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A39" s="43" t="s">
-        <v>90</v>
-      </c>
-      <c r="B39" s="44" t="s">
-        <v>69</v>
-      </c>
-      <c r="C39" s="44" t="s">
-        <v>18</v>
-      </c>
-      <c r="D39" s="47" t="s">
-        <v>38</v>
-      </c>
-      <c r="E39" s="31" t="s">
-        <v>255</v>
-      </c>
       <c r="F39" s="31" t="s">
         <v>38</v>
       </c>
       <c r="G39" s="40" t="s">
         <v>38</v>
       </c>
-      <c r="H39" s="79" t="s">
-        <v>38</v>
-      </c>
-      <c r="I39" s="52" t="s">
-        <v>38</v>
-      </c>
-      <c r="J39" s="96" t="s">
-        <v>207</v>
-      </c>
+      <c r="H39" s="86"/>
+      <c r="I39" s="87"/>
+      <c r="J39" s="98"/>
     </row>
     <row r="40" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A40" s="43" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B40" s="44" t="s">
         <v>69</v>
@@ -5829,7 +5828,7 @@
         <v>38</v>
       </c>
       <c r="E40" s="31" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="F40" s="31" t="s">
         <v>38</v>
@@ -5837,28 +5836,31 @@
       <c r="G40" s="40" t="s">
         <v>38</v>
       </c>
+      <c r="H40" s="79" t="s">
+        <v>38</v>
+      </c>
       <c r="I40" s="52" t="s">
         <v>38</v>
       </c>
       <c r="J40" s="96" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
     </row>
     <row r="41" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A41" s="43" t="s">
-        <v>99</v>
+        <v>91</v>
       </c>
       <c r="B41" s="44" t="s">
-        <v>15</v>
+        <v>69</v>
       </c>
       <c r="C41" s="44" t="s">
         <v>18</v>
       </c>
       <c r="D41" s="47" t="s">
-        <v>20</v>
+        <v>38</v>
       </c>
       <c r="E41" s="31" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="F41" s="31" t="s">
         <v>38</v>
@@ -5866,31 +5868,28 @@
       <c r="G41" s="40" t="s">
         <v>38</v>
       </c>
-      <c r="H41" s="79" t="s">
-        <v>38</v>
-      </c>
-      <c r="I41" s="51" t="s">
-        <v>133</v>
+      <c r="I41" s="52" t="s">
+        <v>38</v>
       </c>
       <c r="J41" s="96" t="s">
-        <v>236</v>
+        <v>207</v>
       </c>
     </row>
     <row r="42" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A42" s="43" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="B42" s="44" t="s">
-        <v>34</v>
+        <v>15</v>
       </c>
       <c r="C42" s="44" t="s">
         <v>18</v>
       </c>
       <c r="D42" s="47" t="s">
-        <v>38</v>
+        <v>20</v>
       </c>
       <c r="E42" s="31" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="F42" s="31" t="s">
         <v>38</v>
@@ -5901,92 +5900,92 @@
       <c r="H42" s="79" t="s">
         <v>38</v>
       </c>
-      <c r="I42" s="52" t="s">
-        <v>38</v>
-      </c>
-      <c r="J42" s="97" t="s">
-        <v>160</v>
+      <c r="I42" s="51" t="s">
+        <v>133</v>
+      </c>
+      <c r="J42" s="96" t="s">
+        <v>235</v>
       </c>
     </row>
     <row r="43" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A43" s="5" t="s">
+      <c r="A43" s="43" t="s">
+        <v>96</v>
+      </c>
+      <c r="B43" s="44" t="s">
+        <v>34</v>
+      </c>
+      <c r="C43" s="44" t="s">
+        <v>18</v>
+      </c>
+      <c r="D43" s="47" t="s">
+        <v>38</v>
+      </c>
+      <c r="E43" s="31" t="s">
+        <v>254</v>
+      </c>
+      <c r="F43" s="31" t="s">
+        <v>38</v>
+      </c>
+      <c r="G43" s="40" t="s">
+        <v>38</v>
+      </c>
+      <c r="H43" s="79" t="s">
+        <v>38</v>
+      </c>
+      <c r="I43" s="52" t="s">
+        <v>38</v>
+      </c>
+      <c r="J43" s="97" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="44" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A44" s="5" t="s">
+        <v>293</v>
+      </c>
+      <c r="B44" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="C44" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="D44" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="E44" s="5"/>
+      <c r="F44" s="5"/>
+      <c r="G44" s="105"/>
+      <c r="H44" s="106" t="s">
+        <v>38</v>
+      </c>
+      <c r="I44" s="107" t="s">
         <v>294</v>
       </c>
-      <c r="B43" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="C43" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="D43" s="13" t="s">
-        <v>20</v>
-      </c>
-      <c r="E43" s="5"/>
-      <c r="F43" s="5"/>
-      <c r="G43" s="105"/>
-      <c r="H43" s="106" t="s">
-        <v>38</v>
-      </c>
-      <c r="I43" s="107" t="s">
+      <c r="J44" s="108" t="s">
         <v>295</v>
       </c>
-      <c r="J43" s="108" t="s">
-        <v>296</v>
-      </c>
-      <c r="K43" s="5"/>
-      <c r="L43" s="5"/>
-      <c r="M43" s="5"/>
-      <c r="N43" s="5"/>
-      <c r="O43" s="5"/>
-      <c r="P43" s="5"/>
-    </row>
-    <row r="44" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A44" s="43" t="s">
-        <v>89</v>
-      </c>
-      <c r="B44" s="44" t="s">
-        <v>33</v>
-      </c>
-      <c r="C44" s="44" t="s">
-        <v>18</v>
-      </c>
-      <c r="D44" s="47" t="s">
-        <v>38</v>
-      </c>
-      <c r="E44" s="31" t="s">
-        <v>255</v>
-      </c>
-      <c r="F44" s="31" t="s">
-        <v>38</v>
-      </c>
-      <c r="G44" s="40" t="s">
-        <v>38</v>
-      </c>
-      <c r="H44" s="79" t="s">
-        <v>38</v>
-      </c>
-      <c r="I44" s="52" t="s">
-        <v>38</v>
-      </c>
-      <c r="J44" s="96" t="s">
-        <v>209</v>
-      </c>
+      <c r="K44" s="5"/>
+      <c r="L44" s="5"/>
+      <c r="M44" s="5"/>
+      <c r="N44" s="5"/>
+      <c r="O44" s="5"/>
+      <c r="P44" s="5"/>
     </row>
     <row r="45" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A45" s="43" t="s">
-        <v>102</v>
+        <v>89</v>
       </c>
       <c r="B45" s="44" t="s">
-        <v>16</v>
+        <v>33</v>
       </c>
       <c r="C45" s="44" t="s">
         <v>18</v>
       </c>
       <c r="D45" s="47" t="s">
-        <v>20</v>
+        <v>38</v>
       </c>
       <c r="E45" s="31" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="F45" s="31" t="s">
         <v>38</v>
@@ -5997,76 +5996,108 @@
       <c r="H45" s="79" t="s">
         <v>38</v>
       </c>
-      <c r="I45" s="51" t="s">
-        <v>133</v>
-      </c>
-      <c r="J45" s="97" t="s">
-        <v>160</v>
+      <c r="I45" s="52" t="s">
+        <v>38</v>
+      </c>
+      <c r="J45" s="96" t="s">
+        <v>208</v>
       </c>
     </row>
     <row r="46" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A46" s="43" t="s">
-        <v>149</v>
+        <v>102</v>
       </c>
       <c r="B46" s="44" t="s">
-        <v>105</v>
-      </c>
-      <c r="C46" s="45" t="s">
+        <v>16</v>
+      </c>
+      <c r="C46" s="44" t="s">
         <v>18</v>
       </c>
       <c r="D46" s="47" t="s">
         <v>20</v>
       </c>
       <c r="E46" s="31" t="s">
-        <v>274</v>
-      </c>
-      <c r="F46" s="31"/>
-      <c r="G46" s="94"/>
+        <v>254</v>
+      </c>
+      <c r="F46" s="31" t="s">
+        <v>38</v>
+      </c>
+      <c r="G46" s="40" t="s">
+        <v>38</v>
+      </c>
       <c r="H46" s="79" t="s">
         <v>38</v>
       </c>
       <c r="I46" s="51" t="s">
-        <v>132</v>
-      </c>
-      <c r="J46" s="96" t="s">
-        <v>210</v>
+        <v>133</v>
+      </c>
+      <c r="J46" s="97" t="s">
+        <v>159</v>
       </c>
     </row>
     <row r="47" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A47" s="43" t="s">
+        <v>301</v>
+      </c>
+      <c r="B47" s="44" t="s">
+        <v>105</v>
+      </c>
+      <c r="C47" s="45" t="s">
+        <v>18</v>
+      </c>
+      <c r="D47" s="47" t="s">
+        <v>20</v>
+      </c>
+      <c r="E47" s="31" t="s">
+        <v>273</v>
+      </c>
+      <c r="F47" s="31"/>
+      <c r="G47" s="94"/>
+      <c r="H47" s="79" t="s">
+        <v>38</v>
+      </c>
+      <c r="I47" s="51" t="s">
+        <v>132</v>
+      </c>
+      <c r="J47" s="96" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="48" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A48" s="43" t="s">
         <v>97</v>
       </c>
-      <c r="B47" s="44" t="s">
+      <c r="B48" s="44" t="s">
         <v>34</v>
       </c>
-      <c r="C47" s="44" t="s">
+      <c r="C48" s="44" t="s">
         <v>18</v>
       </c>
-      <c r="D47" s="47" t="s">
-        <v>38</v>
-      </c>
-      <c r="E47" s="31" t="s">
-        <v>38</v>
-      </c>
-      <c r="F47" s="65" t="s">
-        <v>273</v>
-      </c>
-      <c r="G47" s="95" t="s">
-        <v>275</v>
-      </c>
-      <c r="H47" s="79" t="s">
-        <v>38</v>
-      </c>
-      <c r="I47" s="51" t="s">
+      <c r="D48" s="47" t="s">
+        <v>38</v>
+      </c>
+      <c r="E48" s="31" t="s">
+        <v>38</v>
+      </c>
+      <c r="F48" s="65" t="s">
+        <v>272</v>
+      </c>
+      <c r="G48" s="95" t="s">
+        <v>274</v>
+      </c>
+      <c r="H48" s="79" t="s">
+        <v>38</v>
+      </c>
+      <c r="I48" s="51" t="s">
         <v>133</v>
       </c>
-      <c r="J47" s="96" t="s">
-        <v>211</v>
+      <c r="J48" s="96" t="s">
+        <v>210</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A14:J47">
-    <sortCondition ref="A14:A47"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A15:J48">
+    <sortCondition ref="A15:A48"/>
   </sortState>
   <phoneticPr fontId="25" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
